--- a/grades.xlsx
+++ b/grades.xlsx
@@ -37,16 +37,13 @@
     <t>Lost</t>
   </si>
   <si>
-    <t>Prereq (DS)</t>
-  </si>
-  <si>
-    <t>Prereq (AL)</t>
-  </si>
-  <si>
-    <t>Concepts 1</t>
-  </si>
-  <si>
-    <t>Concepts 2</t>
+    <t>Quiz 1</t>
+  </si>
+  <si>
+    <t>Quiz 2</t>
+  </si>
+  <si>
+    <t>Quiz 3</t>
   </si>
   <si>
     <t>Assign 1</t>
@@ -58,16 +55,19 @@
     <t>Assign 3</t>
   </si>
   <si>
-    <t>DPL</t>
+    <t>Assign 4</t>
+  </si>
+  <si>
+    <t>Assign 5</t>
+  </si>
+  <si>
+    <t>Midterm</t>
   </si>
   <si>
     <t>Final</t>
   </si>
   <si>
-    <t>Tests</t>
-  </si>
-  <si>
-    <t>Assignments</t>
+    <t>Attendance</t>
   </si>
 </sst>
 </file>
@@ -196,20 +196,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F15"/>
+  <dimension ref="B1:F14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.4795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="22.9387755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="27.2142857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="22.9387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="13.4795918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.6428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.3622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="24.8826530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.5459183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.8826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="14.6428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -241,19 +241,20 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="n">
+        <f aca="false">40/COUNTA($B$3:$B$10)</f>
         <v>5</v>
       </c>
       <c r="D3" s="3" t="n">
-        <f aca="false">33/43</f>
-        <v>0.767441860465116</v>
+        <f aca="false">23/30</f>
+        <v>0.766666666666667</v>
       </c>
       <c r="E3" s="3" t="n">
-        <f aca="false">C3*D3</f>
-        <v>3.83720930232558</v>
+        <f aca="false">IF(D3&gt;0,C3*D3,0)</f>
+        <v>3.83333333333333</v>
       </c>
       <c r="F3" s="3" t="n">
-        <f aca="false">C3-E3</f>
-        <v>1.16279069767442</v>
+        <f aca="false">IF(D3&gt;0,C3-E3,0)</f>
+        <v>1.16666666666667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -261,19 +262,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="n">
+        <f aca="false">40/COUNTA($B$3:$B$10)</f>
         <v>5</v>
       </c>
       <c r="D4" s="3" t="n">
-        <f aca="false">36/50</f>
-        <v>0.72</v>
+        <v>0.97</v>
       </c>
       <c r="E4" s="3" t="n">
-        <f aca="false">C4*D4</f>
-        <v>3.6</v>
+        <f aca="false">IF(D4&gt;0,C4*D4,0)</f>
+        <v>4.85</v>
       </c>
       <c r="F4" s="3" t="n">
-        <f aca="false">C4-E4</f>
-        <v>1.4</v>
+        <f aca="false">IF(D4&gt;0,C4-E4,0)</f>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -281,20 +282,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="n">
-        <f aca="false">IF($D$11&gt;0,(IF($D$11&gt;(AVERAGE($D$5:$D$6)),10,15)),15)</f>
-        <v>15</v>
+        <f aca="false">40/COUNTA($B$3:$B$10)</f>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="n">
-        <f aca="false">33/50</f>
-        <v>0.66</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="3" t="n">
-        <f aca="false">C5*D5</f>
-        <v>9.9</v>
+        <f aca="false">IF(D5&gt;0,C5*D5,0)</f>
+        <v>4.5</v>
       </c>
       <c r="F5" s="3" t="n">
-        <f aca="false">C5-E5</f>
-        <v>5.1</v>
+        <f aca="false">IF(D5&gt;0,C5-E5,0)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -302,19 +302,19 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="n">
-        <f aca="false">IF($D$11&gt;0,(IF($D$11&gt;(AVERAGE($D$5:$D$6)),10,15)),15)</f>
-        <v>15</v>
+        <f aca="false">40/COUNTA($B$3:$B$10)</f>
+        <v>5</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="n">
-        <f aca="false">C6*D6</f>
-        <v>9</v>
+        <f aca="false">IF(D6&gt;0,C6*D6,0)</f>
+        <v>5</v>
       </c>
       <c r="F6" s="3" t="n">
-        <f aca="false">C6-E6</f>
-        <v>6</v>
+        <f aca="false">IF(D6&gt;0,C6-E6,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -322,20 +322,19 @@
         <v>9</v>
       </c>
       <c r="C7" s="3" t="n">
-        <f aca="false">20/3</f>
-        <v>6.66666666666667</v>
+        <f aca="false">40/COUNTA($B$3:$B$10)</f>
+        <v>5</v>
       </c>
       <c r="D7" s="3" t="n">
-        <f aca="false">60/100</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3" t="n">
-        <f aca="false">C7*D7</f>
-        <v>4</v>
+        <f aca="false">IF(D7&gt;0,C7*D7,0)</f>
+        <v>5</v>
       </c>
       <c r="F7" s="3" t="n">
-        <f aca="false">C7-E7</f>
-        <v>2.66666666666667</v>
+        <f aca="false">IF(D7&gt;0,C7-E7,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,19 +342,19 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="n">
-        <f aca="false">20/3</f>
-        <v>6.66666666666667</v>
+        <f aca="false">40/COUNTA($B$3:$B$10)</f>
+        <v>5</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.58</v>
+        <v>0.8</v>
       </c>
       <c r="E8" s="3" t="n">
-        <f aca="false">C8*D8</f>
-        <v>3.86666666666667</v>
+        <f aca="false">IF(D8&gt;0,C8*D8,0)</f>
+        <v>4</v>
       </c>
       <c r="F8" s="3" t="n">
-        <f aca="false">C8-E8</f>
-        <v>2.8</v>
+        <f aca="false">IF(D8&gt;0,C8-E8,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -363,13 +362,15 @@
         <v>11</v>
       </c>
       <c r="C9" s="3" t="n">
-        <f aca="false">20/3</f>
-        <v>6.66666666666667</v>
-      </c>
-      <c r="D9" s="3"/>
+        <f aca="false">40/COUNTA($B$3:$B$10)</f>
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="E9" s="3" t="n">
         <f aca="false">IF(D9&gt;0,C9*D9,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F9" s="3" t="n">
         <f aca="false">IF(D9&gt;0,C9-E9,0)</f>
@@ -381,7 +382,8 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>20</v>
+        <f aca="false">40/COUNTA($B$3:$B$10)</f>
+        <v>5</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="n">
@@ -398,67 +400,79 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="n">
-        <f aca="false">IF($D$11&gt;0,(IF($D$11&gt;(AVERAGE($D$5:$D$6)),30,20)),20)</f>
-        <v>20</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0.735</v>
+      </c>
       <c r="E11" s="3" t="n">
         <f aca="false">IF(D11&gt;0,C11*D11,0)</f>
-        <v>0</v>
+        <v>18.375</v>
       </c>
       <c r="F11" s="3" t="n">
         <f aca="false">IF(D11&gt;0,C11-E11,0)</f>
-        <v>0</v>
+        <v>6.625</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C12" s="3" t="n">
-        <f aca="false">SUM(C3:C11)</f>
-        <v>100</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <f aca="false">SUM(D3:D11)/COUNT(D3:D11)</f>
-        <v>0.654573643410853</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3" t="n">
-        <f aca="false">SUM(E3:E11)</f>
-        <v>34.2038759689922</v>
+        <f aca="false">IF(D12&gt;0,C12*D12,0)</f>
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="n">
-        <f aca="false">SUM(F3:F11)</f>
-        <v>19.1294573643411</v>
+        <f aca="false">IF(D12&gt;0,C12-E12,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <f aca="false">IF(D13&gt;0,C13*D13,0)</f>
+        <v>2.25</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <f aca="false">IF(D13&gt;0,C13-E13,0)</f>
+        <v>0.75</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="n">
-        <f aca="false">AVERAGE(D3,D4,D5,D6,D11)</f>
-        <v>0.686860465116279</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="n">
-        <f aca="false">AVERAGE(D7:D10)</f>
-        <v>0.59</v>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="n">
+        <f aca="false">SUM(C3:C13)</f>
+        <v>103</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <f aca="false">100-F14</f>
+        <v>90.5583333333333</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <f aca="false">SUM(E3:E12)</f>
+        <v>50.5583333333333</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <f aca="false">SUM(F3:F12)</f>
+        <v>9.44166666666667</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="67" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
